--- a/BackTest/2020-01-20 BackTest RNT.xlsx
+++ b/BackTest/2020-01-20 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-2247.380479302985</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-2179.380479302985</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-223538.464079303</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>-278988.448015046</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1507,15 @@
         <v>-335590.448015046</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,19 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2435,23 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2476,23 @@
         <v>-499127.5655150459</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2519,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2552,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2585,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2618,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2649,15 @@
         <v>-411600.2647150459</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2684,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2717,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2750,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2783,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2816,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2849,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2880,19 @@
         <v>-438498.3315150459</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>9.811999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>9.811999999999999</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2919,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,24 +2956,23 @@
         <v>-436308.9769977556</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>9.808999999999999</v>
       </c>
       <c r="J77" t="n">
-        <v>9.808999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3200,20 +2999,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3240,20 +3038,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3278,22 +3075,21 @@
         <v>-435055.9769977556</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3318,22 +3114,21 @@
         <v>-435055.9769977556</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,22 +3153,21 @@
         <v>-449027.2443977557</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3398,22 +3192,21 @@
         <v>-448977.2443977557</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3438,22 +3231,21 @@
         <v>-448977.2443977557</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3478,22 +3270,21 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3520,20 +3311,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3558,22 +3348,21 @@
         <v>-449027.2443977557</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3600,20 +3389,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3638,24 +3426,21 @@
         <v>-456831.1443977557</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3682,20 +3467,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3722,20 +3506,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3762,20 +3545,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3800,24 +3582,21 @@
         <v>-456781.6056977556</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3844,20 +3623,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3882,24 +3660,21 @@
         <v>-545290.9816977556</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3926,20 +3701,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3964,1312 +3738,1131 @@
         <v>-545341.9816977556</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
+        <v>9.811999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.01100081532817</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="C98" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="E98" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1428.9482</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-546770.9298977556</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
         <v>9.968999999999999</v>
       </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+      <c r="C99" t="n">
+        <v>9.968999999999999</v>
+      </c>
+      <c r="D99" t="n">
+        <v>9.968999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>9.968999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>5054.009328919651</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-541716.9205688359</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="J99" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="D100" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="E100" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="F100" t="n">
+        <v>5698.184</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-547415.1045688359</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>9.946999999999999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>10</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>9.946999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>232531.03448741</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-314884.0700814259</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="C102" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="E102" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="F102" t="n">
+        <v>164416.7072</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-150467.3628814259</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10</v>
+      </c>
+      <c r="J102" t="n">
+        <v>10</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="E103" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12503.0154</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-150467.3628814259</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>10</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="C104" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="E104" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6019.8933</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-150467.3628814259</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>10</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="D105" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="E105" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2939.6159</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-153406.9787814259</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C106" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F106" t="n">
+        <v>50</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-153356.9787814259</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>9.962999999999999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>9.962999999999999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>9.962999999999999</v>
+      </c>
+      <c r="E107" t="n">
+        <v>9.962999999999999</v>
+      </c>
+      <c r="F107" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-153519.4787814259</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E108" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-153469.4787814259</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="C109" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="E109" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="F109" t="n">
+        <v>11570</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-165039.4787814259</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E110" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F110" t="n">
+        <v>50</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-164989.4787814259</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.974</v>
+      </c>
+      <c r="F111" t="n">
+        <v>5750</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-170739.4787814259</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9.964</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.964</v>
+      </c>
+      <c r="F112" t="n">
+        <v>7954.7933</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-178694.2720814259</v>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="F113" t="n">
+        <v>46323.1994</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-225017.4714814259</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>42138.029</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-182879.4424814259</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C115" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="E115" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="F115" t="n">
+        <v>50</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-182829.4424814259</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F116" t="n">
+        <v>37976.9316</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-220806.3740814259</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C117" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="E117" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>50</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-220756.3740814259</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.970000000000001</v>
+      </c>
+      <c r="F118" t="n">
+        <v>102843.9094</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-323600.283481426</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.826000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.826000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="F119" t="n">
+        <v>568653.1257</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-892253.4091814259</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="F120" t="n">
+        <v>120</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-892133.4091814259</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>55</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-892188.4091814259</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="F122" t="n">
+        <v>237557.294</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-1129745.703181426</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="F123" t="n">
+        <v>115649.6198</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-1129745.703181426</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1914.4867</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-1129745.703181426</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="F125" t="n">
+        <v>52</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-1129693.703181426</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="F126" t="n">
+        <v>10777.2063</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-1140470.909481426</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.584</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.584</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="F127" t="n">
+        <v>119761.28</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-1140470.909481426</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.718</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.718</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.718</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.718</v>
+      </c>
+      <c r="F128" t="n">
+        <v>334.1512</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1140136.758281426</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="C98" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="D98" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="E98" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="F98" t="n">
-        <v>1428.9482</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-546770.9298977556</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.585000000000001</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1357.5008</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1141494.259081426</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9.718</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>9.968999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>9.968999999999999</v>
-      </c>
-      <c r="D99" t="n">
-        <v>9.968999999999999</v>
-      </c>
-      <c r="E99" t="n">
-        <v>9.968999999999999</v>
-      </c>
-      <c r="F99" t="n">
-        <v>5054.009328919651</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-541716.9205688359</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C100" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="D100" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="E100" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="F100" t="n">
-        <v>5698.184</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-547415.1045688359</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9.968999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>9.946999999999999</v>
-      </c>
-      <c r="C101" t="n">
-        <v>10</v>
-      </c>
-      <c r="D101" t="n">
-        <v>10</v>
-      </c>
-      <c r="E101" t="n">
-        <v>9.946999999999999</v>
-      </c>
-      <c r="F101" t="n">
-        <v>232531.03448741</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-314884.0700814259</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="C102" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="D102" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="E102" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="F102" t="n">
-        <v>164416.7072</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-150467.3628814259</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="C103" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="D103" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="E103" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F103" t="n">
-        <v>12503.0154</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-150467.3628814259</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="C104" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="D104" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="E104" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="F104" t="n">
-        <v>6019.8933</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-150467.3628814259</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="C105" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="D105" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="E105" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2939.6159</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-153406.9787814259</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C106" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D106" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="E106" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F106" t="n">
-        <v>50</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-153356.9787814259</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>9.962999999999999</v>
-      </c>
-      <c r="C107" t="n">
-        <v>9.962999999999999</v>
-      </c>
-      <c r="D107" t="n">
-        <v>9.962999999999999</v>
-      </c>
-      <c r="E107" t="n">
-        <v>9.962999999999999</v>
-      </c>
-      <c r="F107" t="n">
-        <v>162.5</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-153519.4787814259</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="C108" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="D108" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="E108" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F108" t="n">
-        <v>50</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-153469.4787814259</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="C109" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="D109" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="E109" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="F109" t="n">
-        <v>11570</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-165039.4787814259</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C110" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D110" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E110" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="F110" t="n">
-        <v>50</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-164989.4787814259</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="C111" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="D111" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="E111" t="n">
-        <v>9.974</v>
-      </c>
-      <c r="F111" t="n">
-        <v>5750</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-170739.4787814259</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9.964</v>
-      </c>
-      <c r="D112" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E112" t="n">
-        <v>9.964</v>
-      </c>
-      <c r="F112" t="n">
-        <v>7954.7933</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-178694.2720814259</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="C113" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="D113" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="E113" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="F113" t="n">
-        <v>46323.1994</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-225017.4714814259</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D114" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F114" t="n">
-        <v>42138.029</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-182879.4424814259</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C115" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D115" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="E115" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F115" t="n">
-        <v>50</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-182829.4424814259</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D116" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="E116" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F116" t="n">
-        <v>37976.9316</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-220806.3740814259</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C117" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D117" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="E117" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F117" t="n">
-        <v>50</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-220756.3740814259</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="D118" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E118" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="F118" t="n">
-        <v>102843.9094</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-323600.283481426</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>9.826000000000001</v>
-      </c>
-      <c r="C119" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="D119" t="n">
-        <v>9.826000000000001</v>
-      </c>
-      <c r="E119" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="F119" t="n">
-        <v>568653.1257</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-892253.4091814259</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="D120" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="E120" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="F120" t="n">
-        <v>120</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-892133.4091814259</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="C121" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D121" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E121" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F121" t="n">
-        <v>55</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-892188.4091814259</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="D122" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E122" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="F122" t="n">
-        <v>237557.294</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-1129745.703181426</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="C123" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="D123" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="E123" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="F123" t="n">
-        <v>115649.6198</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-1129745.703181426</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="C124" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="D124" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1914.4867</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-1129745.703181426</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="C125" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="D125" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9.759</v>
-      </c>
-      <c r="F125" t="n">
-        <v>52</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-1129693.703181426</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="C126" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="D126" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="F126" t="n">
-        <v>10777.2063</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1140470.909481426</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>9.584</v>
-      </c>
-      <c r="C127" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="D127" t="n">
-        <v>9.584</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="F127" t="n">
-        <v>119761.28</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-1140470.909481426</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>9.718</v>
-      </c>
-      <c r="C128" t="n">
-        <v>9.718</v>
-      </c>
-      <c r="D128" t="n">
-        <v>9.718</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.718</v>
-      </c>
-      <c r="F128" t="n">
-        <v>334.1512</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-1140136.758281426</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>9.585000000000001</v>
-      </c>
-      <c r="C129" t="n">
-        <v>9.585000000000001</v>
-      </c>
-      <c r="D129" t="n">
-        <v>9.585000000000001</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.585000000000001</v>
-      </c>
-      <c r="F129" t="n">
-        <v>1357.5008</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-1141494.259081426</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest RNT.xlsx
+++ b/BackTest/2020-01-20 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -880,7 +880,7 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2247.380479302985</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2179.380479302985</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-201507.297879303</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-223538.464079303</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-223538.464079303</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-233640.464079303</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-233691.464079303</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-278988.448015046</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-335590.448015046</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2398,14 +2398,10 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2435,19 +2431,11 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2476,19 +2464,11 @@
         <v>-499127.5655150459</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2649,7 +2629,7 @@
         <v>-411600.2647150459</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2880,14 +2860,10 @@
         <v>-438498.3315150459</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>9.811999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2920,562 +2896,480 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K76" t="inlineStr">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>9.808999999999999</v>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10</v>
+      </c>
+      <c r="E77" t="n">
+        <v>9.808999999999999</v>
+      </c>
+      <c r="F77" t="n">
+        <v>2291.301708645122</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-436308.9769977556</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>10</v>
+      </c>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7854.9</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-436308.9769977556</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>10</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>10</v>
+      </c>
+      <c r="F79" t="n">
+        <v>88564.376</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-436308.9769977556</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="C80" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1253</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-435055.9769977556</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C81" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D81" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-435055.9769977556</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="C82" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="E82" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13971.2674</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-449027.2443977557</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D83" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E83" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F83" t="n">
+        <v>50</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-448977.2443977557</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="C84" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D84" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="F84" t="n">
+        <v>692.6626</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-448977.2443977557</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C85" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D85" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F85" t="n">
+        <v>50</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-448927.2443977557</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="C86" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="D86" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="E86" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1251.1565</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-448927.2443977557</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>10</v>
+      </c>
+      <c r="C87" t="n">
+        <v>10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>10</v>
+      </c>
+      <c r="E87" t="n">
+        <v>10</v>
+      </c>
+      <c r="F87" t="n">
+        <v>100</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-449027.2443977557</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="F88" t="n">
+        <v>7854.9</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-456882.1443977557</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C89" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D89" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F89" t="n">
+        <v>51</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-456831.1443977557</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="J89" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="C90" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D90" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19970.0957</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-456831.1443977557</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>9.808999999999999</v>
-      </c>
-      <c r="C77" t="n">
-        <v>10</v>
-      </c>
-      <c r="D77" t="n">
-        <v>10</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9.808999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>2291.301708645122</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-436308.9769977556</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>9.808999999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>10</v>
-      </c>
-      <c r="C78" t="n">
-        <v>10</v>
-      </c>
-      <c r="D78" t="n">
-        <v>10</v>
-      </c>
-      <c r="E78" t="n">
-        <v>10</v>
-      </c>
-      <c r="F78" t="n">
-        <v>7854.9</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-436308.9769977556</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>10</v>
-      </c>
-      <c r="C79" t="n">
-        <v>10</v>
-      </c>
-      <c r="D79" t="n">
-        <v>10</v>
-      </c>
-      <c r="E79" t="n">
-        <v>10</v>
-      </c>
-      <c r="F79" t="n">
-        <v>88564.376</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-436308.9769977556</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="C80" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D80" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E80" t="n">
-        <v>10.01</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1253</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-435055.9769977556</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C81" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D81" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E81" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="F81" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-435055.9769977556</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C82" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="D82" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F82" t="n">
-        <v>13971.2674</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-449027.2443977557</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C83" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D83" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="F83" t="n">
-        <v>50</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-448977.2443977557</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="C84" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D84" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="E84" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="F84" t="n">
-        <v>692.6626</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-448977.2443977557</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C85" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D85" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="E85" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F85" t="n">
-        <v>50</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-448927.2443977557</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C86" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="D86" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="E86" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1251.1565</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-448927.2443977557</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>10</v>
-      </c>
-      <c r="C87" t="n">
-        <v>10</v>
-      </c>
-      <c r="D87" t="n">
-        <v>10</v>
-      </c>
-      <c r="E87" t="n">
-        <v>10</v>
-      </c>
-      <c r="F87" t="n">
-        <v>100</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-449027.2443977557</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="C88" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="D88" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="E88" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="F88" t="n">
-        <v>7854.9</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-456882.1443977557</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="C89" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="D89" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E89" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F89" t="n">
-        <v>51</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-456831.1443977557</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="C90" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="D90" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="E90" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="F90" t="n">
-        <v>19970.0957</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-456831.1443977557</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3508,11 +3402,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>9.811999999999999</v>
+        <v>9.855</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -3546,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3585,14 +3473,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3624,14 +3506,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3663,14 +3539,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3702,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3738,19 +3602,13 @@
         <v>-545341.9816977556</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9.811999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>1.01100081532817</v>
+        <v>1</v>
       </c>
       <c r="M97" t="inlineStr"/>
     </row>
@@ -3810,7 +3668,7 @@
         <v>-541716.9205688359</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>9.81</v>
@@ -3847,9 +3705,11 @@
         <v>-547415.1045688359</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9.968999999999999</v>
+      </c>
       <c r="J100" t="n">
         <v>9.81</v>
       </c>
@@ -3886,7 +3746,7 @@
         <v>-314884.0700814259</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>9.85</v>
@@ -3927,7 +3787,7 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>10</v>
@@ -3964,7 +3824,7 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4042,7 +3902,7 @@
         <v>-153406.9787814259</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4075,7 +3935,7 @@
         <v>-153356.9787814259</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4108,7 +3968,7 @@
         <v>-153519.4787814259</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4141,7 +4001,7 @@
         <v>-153469.4787814259</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4174,7 +4034,7 @@
         <v>-165039.4787814259</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4207,7 +4067,7 @@
         <v>-164989.4787814259</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4240,7 +4100,7 @@
         <v>-170739.4787814259</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4273,7 +4133,7 @@
         <v>-178694.2720814259</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4306,7 +4166,7 @@
         <v>-225017.4714814259</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4339,7 +4199,7 @@
         <v>-182879.4424814259</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4405,7 +4265,7 @@
         <v>-220806.3740814259</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4438,7 +4298,7 @@
         <v>-220756.3740814259</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4471,7 +4331,7 @@
         <v>-323600.283481426</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4504,7 +4364,7 @@
         <v>-892253.4091814259</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4537,7 +4397,7 @@
         <v>-892133.4091814259</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4570,7 +4430,7 @@
         <v>-892188.4091814259</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4768,17 +4628,11 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9.583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4807,17 +4661,11 @@
         <v>-1140136.758281426</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>9.583</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4846,23 +4694,17 @@
         <v>-1141494.259081426</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9.718</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest RNT.xlsx
+++ b/BackTest/2020-01-20 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>109309.768920697</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>108158.969420697</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>89037.53832069701</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>173.9588206970147</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-2247.380479302985</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-2179.380479302985</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-201507.297879303</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-223538.464079303</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-223538.464079303</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-233640.464079303</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-233691.464079303</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2398,10 +2398,14 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J61" t="n">
+        <v>9.699999999999999</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2431,11 +2435,19 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J62" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2476,19 @@
         <v>-499127.5655150459</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -3157,7 +3177,7 @@
         <v>-448977.2443977557</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3210,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3243,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3276,7 @@
         <v>-449027.2443977557</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3309,7 @@
         <v>-456882.1443977557</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,14 +3342,10 @@
         <v>-456831.1443977557</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="J89" t="n">
-        <v>9.855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
@@ -3362,14 +3378,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3401,14 +3411,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9.855</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3668,14 +3672,10 @@
         <v>-541716.9205688359</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="J99" t="n">
-        <v>9.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3705,19 +3705,11 @@
         <v>-547415.1045688359</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>9.968999999999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3746,19 +3738,11 @@
         <v>-314884.0700814259</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="J101" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3787,14 +3771,10 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>10</v>
-      </c>
-      <c r="J102" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3827,14 +3807,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>10</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3866,14 +3840,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>10</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3935,7 +3903,7 @@
         <v>-153356.9787814259</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3968,7 +3936,7 @@
         <v>-153519.4787814259</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4001,7 +3969,7 @@
         <v>-153469.4787814259</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4034,7 +4002,7 @@
         <v>-165039.4787814259</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4067,7 +4035,7 @@
         <v>-164989.4787814259</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4100,7 +4068,7 @@
         <v>-170739.4787814259</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4133,7 +4101,7 @@
         <v>-178694.2720814259</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4166,7 +4134,7 @@
         <v>-225017.4714814259</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4265,7 +4233,7 @@
         <v>-220806.3740814259</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4298,7 +4266,7 @@
         <v>-220756.3740814259</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4628,11 +4596,17 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>9.583</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4661,11 +4635,17 @@
         <v>-1140136.758281426</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>9.583</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4698,13 +4678,17 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
       <c r="M129" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest RNT.xlsx
+++ b/BackTest/2020-01-20 BackTest RNT.xlsx
@@ -517,7 +517,7 @@
         <v>89037.53832069701</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>59037.53832069701</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -2398,14 +2398,10 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J61" t="n">
-        <v>9.699999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
@@ -2435,19 +2431,11 @@
         <v>-499179.5655150459</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2476,19 +2464,11 @@
         <v>-499127.5655150459</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J63" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -3177,7 +3157,7 @@
         <v>-448977.2443977557</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3210,7 +3190,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3243,7 +3223,7 @@
         <v>-448927.2443977557</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3276,10 +3256,14 @@
         <v>-449027.2443977557</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10.09</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3309,11 +3293,17 @@
         <v>-456882.1443977557</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3342,11 +3332,19 @@
         <v>-456831.1443977557</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9.855</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3375,10 +3373,14 @@
         <v>-456831.1443977557</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J90" t="n">
+        <v>9.99</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
@@ -3408,11 +3410,19 @@
         <v>-456780.6898977557</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="J91" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3441,11 +3451,19 @@
         <v>-456882.1611977557</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>10</v>
+      </c>
+      <c r="J92" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3474,10 +3492,14 @@
         <v>-456781.6056977556</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9.91</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3507,11 +3529,19 @@
         <v>-545345.9816977556</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>10</v>
+      </c>
+      <c r="J94" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3540,11 +3570,19 @@
         <v>-545290.9816977556</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="J95" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3573,11 +3611,19 @@
         <v>-545341.9816977556</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>9.98</v>
+      </c>
+      <c r="J96" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3606,11 +3652,19 @@
         <v>-545341.9816977556</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9.968999999999999</v>
+      </c>
+      <c r="J97" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3693,19 @@
         <v>-546770.9298977556</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>9.968999999999999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3672,11 +3734,19 @@
         <v>-541716.9205688359</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="J99" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3705,11 +3775,19 @@
         <v>-547415.1045688359</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>9.968999999999999</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3738,11 +3816,19 @@
         <v>-314884.0700814259</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3771,11 +3857,19 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>10</v>
+      </c>
+      <c r="J102" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3804,11 +3898,19 @@
         <v>-150467.3628814259</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="J103" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3840,8 +3942,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3873,8 +3981,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3903,11 +4017,17 @@
         <v>-153356.9787814259</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3936,11 +4056,17 @@
         <v>-153519.4787814259</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3969,11 +4095,17 @@
         <v>-153469.4787814259</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4002,11 +4134,17 @@
         <v>-165039.4787814259</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4035,11 +4173,17 @@
         <v>-164989.4787814259</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,11 +4212,17 @@
         <v>-170739.4787814259</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +4251,17 @@
         <v>-178694.2720814259</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4134,11 +4290,17 @@
         <v>-225017.4714814259</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4170,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4203,8 +4371,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4233,11 +4407,17 @@
         <v>-220806.3740814259</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +4446,17 @@
         <v>-220756.3740814259</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4302,8 +4488,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4335,8 +4527,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4368,8 +4566,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4401,8 +4605,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4434,8 +4644,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4467,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4500,8 +4722,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4533,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4563,11 +4797,19 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>9.759</v>
+      </c>
+      <c r="J126" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4596,15 +4838,15 @@
         <v>-1140470.909481426</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>9.583</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9.91</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4640,7 +4882,9 @@
       <c r="I128" t="n">
         <v>9.583</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9.91</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4674,10 +4918,14 @@
         <v>-1141494.259081426</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9.718</v>
+      </c>
+      <c r="J129" t="n">
+        <v>9.91</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
